--- a/biology/Zoologie/Danaus_cleophile/Danaus_cleophile.xlsx
+++ b/biology/Zoologie/Danaus_cleophile/Danaus_cleophile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danaus cleophile est un insecte lépidoptère  de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Danaus.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danaus cleophile a été décrit par Jean-Baptiste Godart en 1819 sous le nom initial de Danais cleophile[1].
-Noms vernaculaires
-Danaus cleophile se nomme Caribbean Queen en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus cleophile a été décrit par Jean-Baptiste Godart en 1819 sous le nom initial de Danais cleophile.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus cleophile se nomme Caribbean Queen en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Danaus cleophile est un grand papillon aux ailes antérieures à bord externe concave. 
 Les ailes sont de couleur jaune orangé discrètement veinées de marron et bordées de marron très largement au niveau de l'apex des ailes antérieures et cette bordure est ornées de deux lignes submarginales de points blancs et des taches blanches marquent l'apex marron des ailes antérieures.
@@ -552,39 +603,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Danaus_cleophile</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Danaus_cleophile</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-La plante hôte de sa chenille est Asclepias curassavica[1].
-Les Asclepiadaceae produisent un latex contenant des substances toxiques qui s'accumulent dans les chenilles ce qui rend la chenille et le futur papillon toxique pour les prédateurs.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -606,15 +624,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Danaus cleophile est présent à Cuba, à la Jamaïque, en République dominicaine et à Haïti[1],[2].
-Biotope
-Protection
-Noté NT sur le Red Data Book[3].
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte de sa chenille est Asclepias curassavica.
+Les Asclepiadaceae produisent un latex contenant des substances toxiques qui s'accumulent dans les chenilles ce qui rend la chenille et le futur papillon toxique pour les prédateurs.
 </t>
         </is>
       </c>
@@ -640,10 +662,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danaus cleophile est présent à Cuba, à la Jamaïque, en République dominicaine et à Haïti,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noté NT sur le Red Data Book.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Danaus_cleophile</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La République de Guinée a émis un timbre représentant Danaus cleophile.
 Sur les autres projets Wikimedia :
